--- a/論文/一覧.xlsx
+++ b/論文/一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miz2022y\Documents\1209バイオセミナー\論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0C49B-5326-461B-A76D-0A20432026BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D85E5D-3335-45F0-BC70-6547D06CBEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="4365" windowWidth="21030" windowHeight="11295" xr2:uid="{2D341FE3-E1B5-4D4A-8698-E53AEF621C41}"/>
+    <workbookView xWindow="3045" yWindow="5070" windowWidth="21030" windowHeight="11295" activeTab="1" xr2:uid="{2D341FE3-E1B5-4D4A-8698-E53AEF621C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>AlphaFold</t>
     <phoneticPr fontId="1"/>
@@ -324,6 +325,665 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41586-021-03819-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIchemy_RNA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIchemy_RNA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RNA tertiary structure modeling with BRiQ potential 
+in CASP15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/prot.26574</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proteins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDDT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iLDDT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DockQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>% RMSD&lt;2A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質-リガンド</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質-核酸</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>核酸</t>
+    <rPh sb="0" eb="2">
+      <t>カクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有結合修飾</t>
+    <rPh sb="0" eb="6">
+      <t>キョウユウケツゴウシュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質-タンパク質複合体</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リガンド(LDDT to polymer)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イオン-タンパク質</t>
+    <rPh sb="8" eb="9">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンパク質複合体</t>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対象</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名前</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>説明</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一定距離以内の原子ペアのうち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">その距離の誤差が一定以下だったものの割合
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AF2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>などで使われている。</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>イッテイキョリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>イッテイイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>核酸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>単体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質複合体</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>複合体構造予測のコンペ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CAPRI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の指標を定量化したもの。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウゾウヨソク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>核酸複合体</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>LDDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異なる鎖間の原子ペアに限定したもの。</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クサリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>低分子複合体</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テイブンシ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フクゴウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>% RMSD &lt; 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Å</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>核酸の共有結合修飾</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクサン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>キョウユウケツゴウシュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タンパク質部分を揃えたときのリガンドの位置の二乗平均平方根偏差が
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>Å</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だったものの割合。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Docking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の評価によく使われる。</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -331,7 +991,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +1016,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,12 +1051,98 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -382,18 +1154,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,204 +1544,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0672293-DB1F-46F3-8B71-C973936C1759}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="8" max="8" width="70.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="70.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>3407</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>29439</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2336</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>1504</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>4197</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>73</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>276</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1781,148 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{F5FE2EDD-2269-46E0-9BC7-1B028DA75A10}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{DD66D037-710A-430F-8A72-D834F6CE314E}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{B8B25C98-2D4F-4CBA-A225-FD6FCEBDAFC6}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{02BC5CF8-656E-4D24-B9B4-95C9ED57C5AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB482A-DB13-400B-8CFC-A1045FE9288A}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A9:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="67.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>